--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC23D4F-06FB-4203-9A2A-6B54EB3A0329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42835393-DEC9-4ABC-84EF-9B3276DF1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t>Steps</t>
   </si>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -651,9 +651,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8">
+        <v>100</v>
+      </c>
+      <c r="H3" s="7">
+        <v>202201</v>
+      </c>
+      <c r="I3" s="7">
+        <v>202201</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20220131</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>202201</v>
+      </c>
+      <c r="I4" s="7">
+        <v>202201</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>20220228</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9">
+        <v>20220228</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8">
+        <v>777.77779999999996</v>
+      </c>
+      <c r="H5" s="7">
+        <v>202202</v>
+      </c>
+      <c r="I5" s="7">
+        <v>202202</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20220325</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8">
+        <v>7000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>202203</v>
+      </c>
+      <c r="I6" s="7">
+        <v>202203</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20220315</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-1266.6667</v>
+      </c>
+      <c r="H7" s="7">
+        <v>202203</v>
+      </c>
+      <c r="I7" s="7">
+        <v>202203</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20220315</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-233.33330000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>202203</v>
+      </c>
+      <c r="I8" s="7">
+        <v>202203</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9">
+        <v>20220315</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="7">
+        <v>202203</v>
+      </c>
+      <c r="I9" s="7">
+        <v>202203</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20220331</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8">
+        <v>873.6203999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>202203</v>
+      </c>
+      <c r="I10" s="7">
+        <v>202203</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>20220430</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20220420</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-1048.2221999999999</v>
+      </c>
+      <c r="H11" s="7">
+        <v>202204</v>
+      </c>
+      <c r="I11" s="7">
+        <v>202204</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>20220430</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20220420</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-951.77779999999996</v>
+      </c>
+      <c r="H12" s="7">
+        <v>202204</v>
+      </c>
+      <c r="I12" s="7">
+        <v>202204</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>20220430</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20220420</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>202204</v>
+      </c>
+      <c r="I13" s="7">
+        <v>202204</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>20220430</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9">
+        <v>20220430</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8">
+        <v>886.81399999999996</v>
+      </c>
+      <c r="H14" s="7">
+        <v>202204</v>
+      </c>
+      <c r="I14" s="7">
+        <v>202204</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="8">
+        <v>164.91669999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>202205</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202205</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="8">
+        <v>710.19439999999997</v>
+      </c>
+      <c r="H16" s="7">
+        <v>202205</v>
+      </c>
+      <c r="I16" s="7">
+        <v>202205</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9">
+        <v>20220531</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1385.1223</v>
+      </c>
+      <c r="H17" s="7">
+        <v>202205</v>
+      </c>
+      <c r="I17" s="7">
+        <v>202205</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J17">
+    <sortCondition ref="A3:A17"/>
+    <sortCondition ref="B3:B17"/>
+    <sortCondition ref="C3:C17"/>
+    <sortCondition ref="D3:D17"/>
+    <sortCondition ref="E3:E17"/>
+    <sortCondition ref="G3:G17"/>
+  </sortState>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -670,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -723,7 +1278,7 @@
         <v>20220131</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8">
         <v>100</v>
@@ -755,7 +1310,7 @@
         <v>20220131</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8">
         <v>100000</v>
@@ -778,19 +1333,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9">
-        <v>20220228</v>
+        <v>20220215</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8">
-        <v>777.77779999999996</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="7">
         <v>202202</v>
@@ -804,31 +1359,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>20220331</v>
+        <v>20220228</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="9">
-        <v>20220325</v>
+        <v>20220228</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8">
-        <v>7000</v>
+        <v>797.22219999999993</v>
       </c>
       <c r="H6" s="7">
-        <v>202203</v>
+        <v>202202</v>
       </c>
       <c r="I6" s="7">
-        <v>202203</v>
+        <v>202202</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -842,19 +1397,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9">
-        <v>20220315</v>
+        <v>20220325</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8">
-        <v>-1266.6667</v>
+        <v>7000</v>
       </c>
       <c r="H7" s="7">
         <v>202203</v>
@@ -874,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>24</v>
@@ -883,10 +1438,10 @@
         <v>20220315</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8">
-        <v>-233.33330000000001</v>
+        <v>-1305.5555999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202203</v>
@@ -906,19 +1461,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9">
         <v>20220315</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8">
-        <v>1500</v>
+        <v>-194.4444</v>
       </c>
       <c r="H9" s="7">
         <v>202203</v>
@@ -938,19 +1493,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9">
-        <v>20220331</v>
+        <v>20220315</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="8">
-        <v>873.6203999999999</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="7">
         <v>202203</v>
@@ -964,31 +1519,31 @@
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>20220430</v>
+        <v>20220331</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9">
-        <v>20220420</v>
+        <v>20220331</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="8">
-        <v>-1048.2221999999999</v>
+        <v>916.8596</v>
       </c>
       <c r="H11" s="7">
-        <v>202204</v>
+        <v>202203</v>
       </c>
       <c r="I11" s="7">
-        <v>202204</v>
+        <v>202203</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -1002,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>24</v>
@@ -1011,10 +1566,10 @@
         <v>20220420</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8">
-        <v>-951.77779999999996</v>
+        <v>-1098.6111000000001</v>
       </c>
       <c r="H12" s="7">
         <v>202204</v>
@@ -1034,19 +1589,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9">
         <v>20220420</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8">
-        <v>1500</v>
+        <v>-901.38890000000004</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -1066,19 +1621,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9">
-        <v>20220430</v>
+        <v>20220420</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="8">
-        <v>886.81399999999996</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="7">
         <v>202204</v>
@@ -1092,31 +1647,31 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="9">
-        <v>20220531</v>
+        <v>20220430</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="8">
-        <v>-1.2344999999999999</v>
+        <v>928.95869999999991</v>
       </c>
       <c r="H15" s="7">
-        <v>202205</v>
+        <v>202204</v>
       </c>
       <c r="I15" s="7">
-        <v>202205</v>
+        <v>202204</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -1130,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>24</v>
@@ -1139,10 +1694,10 @@
         <v>20220531</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="8">
-        <v>-404</v>
+        <v>173.3716</v>
       </c>
       <c r="H16" s="7">
         <v>202205</v>
@@ -1162,19 +1717,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9">
-        <v>20220222</v>
+        <v>20220531</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="8">
-        <v>400</v>
+        <v>858.47220000000004</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -1203,10 +1758,10 @@
         <v>20220531</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="8">
-        <v>907.70489999999995</v>
+        <v>1454.6894</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>
@@ -1215,625 +1770,6 @@
         <v>202205</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J18">
-    <sortCondition ref="A3:A18"/>
-    <sortCondition ref="B3:B18"/>
-    <sortCondition ref="C3:C18"/>
-    <sortCondition ref="D3:D18"/>
-    <sortCondition ref="E3:E18"/>
-    <sortCondition ref="G3:G18"/>
-  </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="8">
-        <v>100</v>
-      </c>
-      <c r="H3" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I3" s="7">
-        <v>202201</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="8">
-        <v>100000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>202201</v>
-      </c>
-      <c r="I4" s="7">
-        <v>202201</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9">
-        <v>20220215</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I5" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9">
-        <v>20220228</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8">
-        <v>797.22219999999993</v>
-      </c>
-      <c r="H6" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I6" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9">
-        <v>20220325</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>202203</v>
-      </c>
-      <c r="I7" s="7">
-        <v>202203</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-1305.5555999999999</v>
-      </c>
-      <c r="H8" s="7">
-        <v>202203</v>
-      </c>
-      <c r="I8" s="7">
-        <v>202203</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-194.4444</v>
-      </c>
-      <c r="H9" s="7">
-        <v>202203</v>
-      </c>
-      <c r="I9" s="7">
-        <v>202203</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9">
-        <v>20220315</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H10" s="7">
-        <v>202203</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202203</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
-        <v>20220331</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="8">
-        <v>916.8596</v>
-      </c>
-      <c r="H11" s="7">
-        <v>202203</v>
-      </c>
-      <c r="I11" s="7">
-        <v>202203</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="8">
-        <v>-1098.6111000000001</v>
-      </c>
-      <c r="H12" s="7">
-        <v>202204</v>
-      </c>
-      <c r="I12" s="7">
-        <v>202204</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-901.38890000000004</v>
-      </c>
-      <c r="H13" s="7">
-        <v>202204</v>
-      </c>
-      <c r="I13" s="7">
-        <v>202204</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9">
-        <v>20220420</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H14" s="7">
-        <v>202204</v>
-      </c>
-      <c r="I14" s="7">
-        <v>202204</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9">
-        <v>20220430</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="8">
-        <v>928.95869999999991</v>
-      </c>
-      <c r="H15" s="7">
-        <v>202204</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202204</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-1.2343999999999999</v>
-      </c>
-      <c r="H16" s="7">
-        <v>202205</v>
-      </c>
-      <c r="I16" s="7">
-        <v>202205</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-404</v>
-      </c>
-      <c r="H17" s="7">
-        <v>202205</v>
-      </c>
-      <c r="I17" s="7">
-        <v>202205</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="9">
-        <v>20220222</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8">
-        <v>400</v>
-      </c>
-      <c r="H18" s="7">
-        <v>202205</v>
-      </c>
-      <c r="I18" s="7">
-        <v>202205</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="9">
-        <v>20220531</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8">
-        <v>951.52919999999995</v>
-      </c>
-      <c r="H19" s="7">
-        <v>202205</v>
-      </c>
-      <c r="I19" s="7">
-        <v>202205</v>
-      </c>
-      <c r="J19" s="7">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42835393-DEC9-4ABC-84EF-9B3276DF1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF6932-02F9-404D-B4A8-F8E5D31518DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
         <v>37</v>
       </c>
       <c r="G8" s="8">
-        <v>-1305.5555999999999</v>
+        <v>-1305.5554999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202203</v>
@@ -1473,7 +1473,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="8">
-        <v>-194.4444</v>
+        <v>-194.44450000000001</v>
       </c>
       <c r="H9" s="7">
         <v>202203</v>
@@ -1569,7 +1569,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="8">
-        <v>-1098.6111000000001</v>
+        <v>-1098.6112000000001</v>
       </c>
       <c r="H12" s="7">
         <v>202204</v>
@@ -1601,7 +1601,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="8">
-        <v>-901.38890000000004</v>
+        <v>-901.38879999999995</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF6932-02F9-404D-B4A8-F8E5D31518DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF0ADB-22B0-4256-97A7-0ECF9E088338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="8">
-        <v>173.3716</v>
+        <v>233.62620000000001</v>
       </c>
       <c r="H16" s="7">
         <v>202205</v>
@@ -1729,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="8">
-        <v>858.47220000000004</v>
+        <v>1095.8333</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -1761,7 +1761,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="8">
-        <v>1454.6894</v>
+        <v>1460.8212000000001</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF0ADB-22B0-4256-97A7-0ECF9E088338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE067AA1-7E73-4CDE-BAE7-C7533BB6DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="8">
-        <v>164.91669999999999</v>
+        <v>166.7534</v>
       </c>
       <c r="H15" s="7">
         <v>202205</v>
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="8">
-        <v>710.19439999999997</v>
+        <v>1110.9444000000001</v>
       </c>
       <c r="H16" s="7">
         <v>202205</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="8">
-        <v>1385.1223</v>
+        <v>1395.4749999999999</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_Monthly_RC/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_Monthly_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE067AA1-7E73-4CDE-BAE7-C7533BB6DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAED51-8249-4576-A2D5-3502EB6CB642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="8">
-        <v>166.7534</v>
+        <v>165.41659999999999</v>
       </c>
       <c r="H15" s="7">
         <v>202205</v>
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="8">
-        <v>1110.9444000000001</v>
+        <v>819.27779999999996</v>
       </c>
       <c r="H16" s="7">
         <v>202205</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="8">
-        <v>1395.4749999999999</v>
+        <v>1387.9403</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7508A1-8C0A-4E3D-9988-BBD3725626E2}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="8">
-        <v>233.62620000000001</v>
+        <v>173.3716</v>
       </c>
       <c r="H16" s="7">
         <v>202205</v>
@@ -1729,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="8">
-        <v>1095.8333</v>
+        <v>858.47220000000004</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -1761,7 +1761,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="8">
-        <v>1460.8212000000001</v>
+        <v>1454.6894</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>
